--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1952,28 +1952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.4149425446342</v>
+        <v>229.2440004623466</v>
       </c>
       <c r="AB2" t="n">
-        <v>285.1625190077781</v>
+        <v>313.6617549639597</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.9470084218687</v>
+        <v>283.7263172973302</v>
       </c>
       <c r="AD2" t="n">
-        <v>208414.9425446342</v>
+        <v>229244.0004623466</v>
       </c>
       <c r="AE2" t="n">
-        <v>285162.5190077781</v>
+        <v>313661.7549639596</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.989355554562497e-06</v>
+        <v>6.744203501655287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.079166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>257947.0084218687</v>
+        <v>283726.3172973302</v>
       </c>
     </row>
     <row r="3">
@@ -2058,28 +2058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.37405532757066</v>
+        <v>98.11768288216041</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.8665960015484</v>
+        <v>134.248942365984</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.76283666388815</v>
+        <v>121.4364117261843</v>
       </c>
       <c r="AD3" t="n">
-        <v>77374.05532757066</v>
+        <v>98117.68288216041</v>
       </c>
       <c r="AE3" t="n">
-        <v>105866.5960015484</v>
+        <v>134248.942365984</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.248559549460499e-06</v>
+        <v>1.225404956435114e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.795833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>95762.83666388816</v>
+        <v>121436.4117261843</v>
       </c>
     </row>
     <row r="4">
@@ -2164,28 +2164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.82484305236922</v>
+        <v>76.15407591092931</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.06445425133992</v>
+        <v>104.1973663420073</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.46882914386929</v>
+        <v>94.25291594027453</v>
       </c>
       <c r="AD4" t="n">
-        <v>65824.84305236922</v>
+        <v>76154.07591092931</v>
       </c>
       <c r="AE4" t="n">
-        <v>90064.45425133992</v>
+        <v>104197.3663420073</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.187471724885214e-06</v>
+        <v>1.384132718216191e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.475</v>
       </c>
       <c r="AH4" t="n">
-        <v>81468.82914386928</v>
+        <v>94252.91594027453</v>
       </c>
     </row>
     <row r="5">
@@ -2270,28 +2270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>65.38064939903072</v>
+        <v>75.70988225759081</v>
       </c>
       <c r="AB5" t="n">
-        <v>89.45668889840157</v>
+        <v>103.5896009890689</v>
       </c>
       <c r="AC5" t="n">
-        <v>80.91906806321113</v>
+        <v>93.70315485961636</v>
       </c>
       <c r="AD5" t="n">
-        <v>65380.64939903072</v>
+        <v>75709.88225759081</v>
       </c>
       <c r="AE5" t="n">
-        <v>89456.68889840157</v>
+        <v>103589.6009890689</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.249910259857522e-06</v>
+        <v>1.394688262349551e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.455555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>80919.06806321113</v>
+        <v>93703.15485961636</v>
       </c>
     </row>
   </sheetData>
@@ -2567,28 +2567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.3477381546114</v>
+        <v>154.4487599770482</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.1380611781017</v>
+        <v>211.3236071988989</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.9003234095796</v>
+        <v>191.1551787224419</v>
       </c>
       <c r="AD2" t="n">
-        <v>124347.7381546114</v>
+        <v>154448.7599770481</v>
       </c>
       <c r="AE2" t="n">
-        <v>170138.0611781018</v>
+        <v>211323.6071988989</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.28083164918386e-06</v>
+        <v>9.145296762088729e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.969444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>153900.3234095796</v>
+        <v>191155.1787224419</v>
       </c>
     </row>
     <row r="3">
@@ -2673,28 +2673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.06223847669612</v>
+        <v>73.23814717512774</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.28453679339371</v>
+        <v>100.2076640039888</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.04966170296078</v>
+        <v>90.64398519381287</v>
       </c>
       <c r="AD3" t="n">
-        <v>63062.23847669612</v>
+        <v>73238.14717512774</v>
       </c>
       <c r="AE3" t="n">
-        <v>86284.53679339371</v>
+        <v>100207.6640039888</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.324795251265436e-06</v>
+        <v>1.441680555527945e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.518055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>78049.66170296077</v>
+        <v>90643.98519381287</v>
       </c>
     </row>
     <row r="4">
@@ -2779,28 +2779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.32932177139673</v>
+        <v>72.33463826923614</v>
       </c>
       <c r="AB4" t="n">
-        <v>85.28172782320057</v>
+        <v>98.97144325894878</v>
       </c>
       <c r="AC4" t="n">
-        <v>77.14255941343131</v>
+        <v>89.52574762163236</v>
       </c>
       <c r="AD4" t="n">
-        <v>62329.32177139673</v>
+        <v>72334.63826923614</v>
       </c>
       <c r="AE4" t="n">
-        <v>85281.72782320056</v>
+        <v>98971.44325894878</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.413986252199009e-06</v>
+        <v>1.457126572864463e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.491666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>77142.55941343131</v>
+        <v>89525.74762163236</v>
       </c>
     </row>
   </sheetData>
@@ -3076,28 +3076,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.55059604346995</v>
+        <v>75.69598641432881</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.74326445975443</v>
+        <v>103.5705880832765</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.22811781659942</v>
+        <v>93.68595651886801</v>
       </c>
       <c r="AD2" t="n">
-        <v>57550.59604346995</v>
+        <v>75695.98641432881</v>
       </c>
       <c r="AE2" t="n">
-        <v>78743.26445975443</v>
+        <v>103570.5880832765</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.182031390363747e-06</v>
+        <v>1.548216407960842e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.858333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>71228.11781659942</v>
+        <v>93685.95651886801</v>
       </c>
     </row>
     <row r="3">
@@ -3182,28 +3182,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.58064974227234</v>
+        <v>75.72604011313119</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.78438525633145</v>
+        <v>103.6117088798535</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.26531410206454</v>
+        <v>93.72315280433314</v>
       </c>
       <c r="AD3" t="n">
-        <v>57580.64974227233</v>
+        <v>75726.0401131312</v>
       </c>
       <c r="AE3" t="n">
-        <v>78784.38525633144</v>
+        <v>103611.7088798535</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.212680117658006e-06</v>
+        <v>1.554015806694019e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.847222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>71265.31410206454</v>
+        <v>93723.15280433313</v>
       </c>
     </row>
   </sheetData>
@@ -3479,28 +3479,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.01100596429805</v>
+        <v>82.9189266676711</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.58268232659748</v>
+        <v>113.453333591529</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.22391404843469</v>
+        <v>102.6255066663365</v>
       </c>
       <c r="AD2" t="n">
-        <v>64011.00596429805</v>
+        <v>82918.9266676711</v>
       </c>
       <c r="AE2" t="n">
-        <v>87582.68232659748</v>
+        <v>113453.333591529</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.831678462237275e-06</v>
+        <v>1.426761731514867e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.856944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>79223.91404843469</v>
+        <v>102625.5066663365</v>
       </c>
     </row>
     <row r="3">
@@ -3585,28 +3585,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.35347368251495</v>
+        <v>77.261394385888</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.84179706595681</v>
+        <v>105.7124483308883</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.22180801266641</v>
+        <v>95.62340063056818</v>
       </c>
       <c r="AD3" t="n">
-        <v>58353.47368251494</v>
+        <v>77261.39438588799</v>
       </c>
       <c r="AE3" t="n">
-        <v>79841.79706595681</v>
+        <v>105712.4483308883</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.468516858576194e-06</v>
+        <v>1.542779856803951e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.641666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>72221.80801266641</v>
+        <v>95623.40063056818</v>
       </c>
     </row>
   </sheetData>
@@ -3882,28 +3882,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.52060260728321</v>
+        <v>75.32334208290145</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.01642316911801</v>
+        <v>103.0607196691102</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.32994348423172</v>
+        <v>93.22474923054477</v>
       </c>
       <c r="AD2" t="n">
-        <v>66520.6026072832</v>
+        <v>75323.34208290145</v>
       </c>
       <c r="AE2" t="n">
-        <v>91016.42316911802</v>
+        <v>103060.7196691102</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.782048898253554e-06</v>
+        <v>1.525030846078252e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.120833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>82329.94348423171</v>
+        <v>93224.74923054477</v>
       </c>
     </row>
   </sheetData>
@@ -4179,28 +4179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.7312833076353</v>
+        <v>166.9974449416466</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.7642151487721</v>
+        <v>228.4932715763628</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.603560229376</v>
+        <v>206.6861944295013</v>
       </c>
       <c r="AD2" t="n">
-        <v>146731.2833076353</v>
+        <v>166997.4449416466</v>
       </c>
       <c r="AE2" t="n">
-        <v>200764.2151487721</v>
+        <v>228493.2715763628</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.944295345740628e-06</v>
+        <v>8.506567225634756e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.201388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>181603.560229376</v>
+        <v>206686.1944295013</v>
       </c>
     </row>
     <row r="3">
@@ -4285,28 +4285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.23104746007949</v>
+        <v>75.49209480466705</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.25199692555685</v>
+        <v>103.2916145878744</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.73391160496767</v>
+        <v>93.43360786232529</v>
       </c>
       <c r="AD3" t="n">
-        <v>65231.04746007949</v>
+        <v>75492.09480466705</v>
       </c>
       <c r="AE3" t="n">
-        <v>89251.99692555686</v>
+        <v>103291.6145878744</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.156389817456998e-06</v>
+        <v>1.403291540026066e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.547222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>80733.91160496767</v>
+        <v>93433.60786232528</v>
       </c>
     </row>
     <row r="4">
@@ -4391,28 +4391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.6067065517534</v>
+        <v>71.69716169574878</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.29301380015153</v>
+        <v>98.09921968762224</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.24820686907292</v>
+        <v>88.73676784377946</v>
       </c>
       <c r="AD4" t="n">
-        <v>61606.70655175341</v>
+        <v>71697.16169574877</v>
       </c>
       <c r="AE4" t="n">
-        <v>84293.01380015153</v>
+        <v>98099.21968762224</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.546740731047338e-06</v>
+        <v>1.470450681134105e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.430555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>76248.20686907292</v>
+        <v>88736.76784377947</v>
       </c>
     </row>
   </sheetData>
@@ -4688,28 +4688,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.56283342670827</v>
+        <v>84.6271921919584</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.44244935623334</v>
+        <v>115.7906578452138</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.6198717334895</v>
+        <v>104.7397599737055</v>
       </c>
       <c r="AD2" t="n">
-        <v>67562.83342670827</v>
+        <v>84627.1921919584</v>
       </c>
       <c r="AE2" t="n">
-        <v>92442.44935623334</v>
+        <v>115790.6578452138</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.365297202278915e-06</v>
+        <v>1.476491946333653e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>83619.8717334895</v>
+        <v>104739.7599737055</v>
       </c>
     </row>
   </sheetData>
@@ -4985,28 +4985,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.21945231846857</v>
+        <v>114.677363606506</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.2834554478343</v>
+        <v>156.9066280945754</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.8493853139057</v>
+        <v>141.9316797291078</v>
       </c>
       <c r="AD2" t="n">
-        <v>95219.45231846857</v>
+        <v>114677.363606506</v>
       </c>
       <c r="AE2" t="n">
-        <v>130283.4554478343</v>
+        <v>156906.6280945754</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.423431926567756e-06</v>
+        <v>1.13763752472645e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.3625</v>
       </c>
       <c r="AH2" t="n">
-        <v>117849.3853139057</v>
+        <v>141931.6797291078</v>
       </c>
     </row>
     <row r="3">
@@ -5091,28 +5091,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.06838270726088</v>
+        <v>69.96797530614732</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.18821125005964</v>
+        <v>95.73327058305122</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.34428372025219</v>
+        <v>86.59662160111756</v>
       </c>
       <c r="AD3" t="n">
-        <v>60068.38270726088</v>
+        <v>69967.97530614732</v>
       </c>
       <c r="AE3" t="n">
-        <v>82188.21125005964</v>
+        <v>95733.27058305123</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.48880062450776e-06</v>
+        <v>1.503429668246128e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.544444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>74344.28372025219</v>
+        <v>86596.62160111756</v>
       </c>
     </row>
   </sheetData>
@@ -5388,28 +5388,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.770598603417</v>
+        <v>133.7749819910679</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.6659522137009</v>
+        <v>183.0368320957804</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.809412213004</v>
+        <v>165.5680537344178</v>
       </c>
       <c r="AD2" t="n">
-        <v>113770.598603417</v>
+        <v>133774.9819910679</v>
       </c>
       <c r="AE2" t="n">
-        <v>155665.9522137009</v>
+        <v>183036.8320957804</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.628680799901107e-06</v>
+        <v>9.815927823098499e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.759722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>140809.412213004</v>
+        <v>165568.0537344178</v>
       </c>
     </row>
     <row r="3">
@@ -5494,28 +5494,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.76346321747398</v>
+        <v>71.8509957658711</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.50749518580632</v>
+        <v>98.30970224904371</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.4422184523074</v>
+        <v>88.92716224495307</v>
       </c>
       <c r="AD3" t="n">
-        <v>61763.46321747397</v>
+        <v>71850.99576587111</v>
       </c>
       <c r="AE3" t="n">
-        <v>84507.49518580631</v>
+        <v>98309.70224904371</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.406609823486793e-06</v>
+        <v>1.466039347367983e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.516666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>76442.2184523074</v>
+        <v>88927.16224495307</v>
       </c>
     </row>
     <row r="4">
@@ -5600,28 +5600,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.83010647225195</v>
+        <v>71.91763902064908</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.5986794270864</v>
+        <v>98.40088649032378</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.52470019757762</v>
+        <v>89.0096439902233</v>
       </c>
       <c r="AD4" t="n">
-        <v>61830.10647225195</v>
+        <v>71917.63902064908</v>
       </c>
       <c r="AE4" t="n">
-        <v>84598.67942708639</v>
+        <v>98400.88649032378</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.413313173110451e-06</v>
+        <v>1.467208353009234e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.515277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>76524.70019757762</v>
+        <v>89009.6439902233</v>
       </c>
     </row>
   </sheetData>
@@ -5897,28 +5897,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>178.7123549744722</v>
+        <v>209.6392900914483</v>
       </c>
       <c r="AB2" t="n">
-        <v>244.5221283086217</v>
+        <v>286.8377253357299</v>
       </c>
       <c r="AC2" t="n">
-        <v>221.1852795718803</v>
+        <v>259.4623354090482</v>
       </c>
       <c r="AD2" t="n">
-        <v>178712.3549744722</v>
+        <v>209639.2900914483</v>
       </c>
       <c r="AE2" t="n">
-        <v>244522.1283086217</v>
+        <v>286837.7253357299</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.283731985607629e-06</v>
+        <v>7.282060465289366e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.768055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>221185.2795718803</v>
+        <v>259462.3354090482</v>
       </c>
     </row>
     <row r="3">
@@ -6003,28 +6003,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.07899867939454</v>
+        <v>93.66850847252135</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.98991001099063</v>
+        <v>128.1613856549969</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.44701333628673</v>
+        <v>115.9298428837524</v>
       </c>
       <c r="AD3" t="n">
-        <v>73078.99867939454</v>
+        <v>93668.50847252135</v>
       </c>
       <c r="AE3" t="n">
-        <v>99989.91001099063</v>
+        <v>128161.3856549969</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.542668110870621e-06</v>
+        <v>1.282203588775145e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>90447.01333628673</v>
+        <v>115929.8428837524</v>
       </c>
     </row>
     <row r="4">
@@ -6109,28 +6109,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.66998695636121</v>
+        <v>74.92216093418985</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.48432919212739</v>
+        <v>102.5118059225801</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.03950900258805</v>
+        <v>92.72822304157805</v>
       </c>
       <c r="AD4" t="n">
-        <v>64669.98695636121</v>
+        <v>74922.16093418984</v>
       </c>
       <c r="AE4" t="n">
-        <v>88484.32919212739</v>
+        <v>102511.8059225801</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.266745427033197e-06</v>
+        <v>1.405291933600536e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.470833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>80039.50900258805</v>
+        <v>92728.22304157805</v>
       </c>
     </row>
   </sheetData>
@@ -6406,28 +6406,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.27806162995667</v>
+        <v>89.88629749966157</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.8399855401871</v>
+        <v>122.986397742561</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.35701148164763</v>
+        <v>111.2487485545366</v>
       </c>
       <c r="AD2" t="n">
-        <v>80278.06162995666</v>
+        <v>89886.29749966157</v>
       </c>
       <c r="AE2" t="n">
-        <v>109839.9855401871</v>
+        <v>122986.397742561</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.321151104345773e-06</v>
+        <v>1.320176791791156e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.018055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>99357.01148164763</v>
+        <v>111248.7485545366</v>
       </c>
     </row>
     <row r="3">
@@ -6512,28 +6512,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.87914009811057</v>
+        <v>68.57262731383605</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.56103704653992</v>
+        <v>93.82409390156306</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.87240473896254</v>
+        <v>84.86965406256373</v>
       </c>
       <c r="AD3" t="n">
-        <v>58879.14009811057</v>
+        <v>68572.62731383606</v>
       </c>
       <c r="AE3" t="n">
-        <v>80561.03704653992</v>
+        <v>93824.09390156306</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.488526306511989e-06</v>
+        <v>1.530682165501792e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.602777777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>72872.40473896255</v>
+        <v>84869.65406256373</v>
       </c>
     </row>
   </sheetData>
@@ -6809,28 +6809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.59836474077119</v>
+        <v>76.01646488515182</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.80862369880813</v>
+        <v>104.0090808655686</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.28723926161014</v>
+        <v>94.08260016544678</v>
       </c>
       <c r="AD2" t="n">
-        <v>57598.36474077119</v>
+        <v>76016.46488515181</v>
       </c>
       <c r="AE2" t="n">
-        <v>78808.62369880814</v>
+        <v>104009.0808655686</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.320724901335198e-06</v>
+        <v>1.552381300660279e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.766666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>71287.23926161014</v>
+        <v>94082.60016544678</v>
       </c>
     </row>
     <row r="3">
@@ -6915,28 +6915,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.58501515888523</v>
+        <v>76.00311530326586</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.7903582119298</v>
+        <v>103.9908153786903</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.2707170071637</v>
+        <v>94.06607791100032</v>
       </c>
       <c r="AD3" t="n">
-        <v>57585.01515888523</v>
+        <v>76003.11530326586</v>
       </c>
       <c r="AE3" t="n">
-        <v>78790.35821192979</v>
+        <v>103990.8153786903</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.35254221588891e-06</v>
+        <v>1.558317394538648e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.755555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>71270.71700716369</v>
+        <v>94066.07791100032</v>
       </c>
     </row>
   </sheetData>
@@ -11569,28 +11569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.33316957584859</v>
+        <v>75.18147401426214</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.44577197457627</v>
+        <v>102.8666095188205</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.95901759667326</v>
+        <v>93.04916468056338</v>
       </c>
       <c r="AD2" t="n">
-        <v>57333.16957584859</v>
+        <v>75181.47401426213</v>
       </c>
       <c r="AE2" t="n">
-        <v>78445.77197457627</v>
+        <v>102866.6095188205</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.035705361962198e-06</v>
+        <v>1.5452959403999e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.9625</v>
       </c>
       <c r="AH2" t="n">
-        <v>70959.01759667326</v>
+        <v>93049.16468056338</v>
       </c>
     </row>
   </sheetData>
@@ -11866,28 +11866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.99907002549973</v>
+        <v>86.80320352570477</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.77581574987137</v>
+        <v>118.7679725508888</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.63510631692891</v>
+        <v>107.4329239425593</v>
       </c>
       <c r="AD2" t="n">
-        <v>69999.07002549974</v>
+        <v>86803.20352570477</v>
       </c>
       <c r="AE2" t="n">
-        <v>95775.81574987137</v>
+        <v>118767.9725508888</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.692121461274596e-06</v>
+        <v>1.380316518450202e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.818055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>86635.10631692891</v>
+        <v>107432.9239425593</v>
       </c>
     </row>
   </sheetData>
@@ -12163,28 +12163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.1884933983787</v>
+        <v>124.0089453387532</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.5552931395274</v>
+        <v>169.6745099009606</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.95001603994</v>
+        <v>153.4810128157304</v>
       </c>
       <c r="AD2" t="n">
-        <v>104188.4933983787</v>
+        <v>124008.9453387532</v>
       </c>
       <c r="AE2" t="n">
-        <v>142555.2931395274</v>
+        <v>169674.5099009606</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.004612533966989e-06</v>
+        <v>1.054986735357143e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.559722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>128950.0160399399</v>
+        <v>153481.0128157304</v>
       </c>
     </row>
     <row r="3">
@@ -12269,28 +12269,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.00322724204366</v>
+        <v>70.99879406680255</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.46730678497892</v>
+        <v>97.14368228789313</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.50130417254104</v>
+        <v>87.87242559237505</v>
       </c>
       <c r="AD3" t="n">
-        <v>61003.22724204366</v>
+        <v>70998.79406680254</v>
       </c>
       <c r="AE3" t="n">
-        <v>83467.30678497892</v>
+        <v>97143.68228789313</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.431907601702979e-06</v>
+        <v>1.481452903619211e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.534722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>75501.30417254104</v>
+        <v>87872.42559237505</v>
       </c>
     </row>
     <row r="4">
@@ -12375,28 +12375,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.88120287834319</v>
+        <v>70.87676970310207</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.30034766722903</v>
+        <v>96.97672317014325</v>
       </c>
       <c r="AC4" t="n">
-        <v>75.35027939866059</v>
+        <v>87.72140081849459</v>
       </c>
       <c r="AD4" t="n">
-        <v>60881.20287834319</v>
+        <v>70876.76970310207</v>
       </c>
       <c r="AE4" t="n">
-        <v>83300.34766722903</v>
+        <v>96976.72317014325</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.470221165688162e-06</v>
+        <v>1.48818444567292e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.523611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>75350.27939866058</v>
+        <v>87721.40081849459</v>
       </c>
     </row>
   </sheetData>
@@ -12672,28 +12672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.3019264748443</v>
+        <v>181.7324886736546</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.7004119415467</v>
+        <v>248.6544084747362</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.6370743808824</v>
+        <v>224.9231807186337</v>
       </c>
       <c r="AD2" t="n">
-        <v>161301.9264748443</v>
+        <v>181732.4886736546</v>
       </c>
       <c r="AE2" t="n">
-        <v>220700.4119415467</v>
+        <v>248654.4084747362</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.610572969077104e-06</v>
+        <v>7.883565963825446e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.466666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>199637.0743808824</v>
+        <v>224923.1807186338</v>
       </c>
     </row>
     <row r="3">
@@ -12778,28 +12778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.40843573641978</v>
+        <v>79.75168336340681</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.96768385860673</v>
+        <v>109.1197715737237</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.90410139914611</v>
+        <v>98.7055337253167</v>
       </c>
       <c r="AD3" t="n">
-        <v>69408.43573641978</v>
+        <v>79751.68336340682</v>
       </c>
       <c r="AE3" t="n">
-        <v>94967.68385860673</v>
+        <v>109119.7715737237</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.812396821601658e-06</v>
+        <v>1.335832793272227e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.636111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>85904.10139914611</v>
+        <v>98705.53372531669</v>
       </c>
     </row>
     <row r="4">
@@ -12884,28 +12884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.89085857789424</v>
+        <v>74.06351400428909</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.41829137199127</v>
+        <v>101.3369673122614</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.0752123358119</v>
+        <v>91.66550937933145</v>
       </c>
       <c r="AD4" t="n">
-        <v>63890.85857789424</v>
+        <v>74063.51400428909</v>
       </c>
       <c r="AE4" t="n">
-        <v>87418.29137199128</v>
+        <v>101336.9673122614</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.319937946321095e-06</v>
+        <v>1.422616669439374e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.475</v>
       </c>
       <c r="AH4" t="n">
-        <v>79075.2123358119</v>
+        <v>91665.50937933146</v>
       </c>
     </row>
   </sheetData>
@@ -13181,28 +13181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.94738059450484</v>
+        <v>108.2758251401746</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.8605096264072</v>
+        <v>148.147760749</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.8983837954303</v>
+        <v>134.0087463898438</v>
       </c>
       <c r="AD2" t="n">
-        <v>83947.38059450484</v>
+        <v>108275.8251401746</v>
       </c>
       <c r="AE2" t="n">
-        <v>114860.5096264072</v>
+        <v>148147.760749</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.571848412671892e-06</v>
+        <v>1.194303748858722e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.748611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>103898.3837954303</v>
+        <v>134008.7463898438</v>
       </c>
     </row>
   </sheetData>
@@ -13478,28 +13478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.3961970652144</v>
+        <v>78.06734416080133</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.26849719987449</v>
+        <v>106.8151843689188</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.51234588818966</v>
+        <v>96.62089308882915</v>
       </c>
       <c r="AD2" t="n">
-        <v>59396.1970652144</v>
+        <v>78067.34416080132</v>
       </c>
       <c r="AE2" t="n">
-        <v>81268.49719987449</v>
+        <v>106815.1843689188</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.225571438306816e-06</v>
+        <v>1.51550604377589e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.756944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>73512.34588818965</v>
+        <v>96620.89308882915</v>
       </c>
     </row>
     <row r="3">
@@ -13584,28 +13584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.90624456548652</v>
+        <v>76.57739166107345</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.22987845768267</v>
+        <v>104.776565626727</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.6682900575326</v>
+        <v>94.77683725817211</v>
       </c>
       <c r="AD3" t="n">
-        <v>57906.24456548652</v>
+        <v>76577.39166107344</v>
       </c>
       <c r="AE3" t="n">
-        <v>79229.87845768267</v>
+        <v>104776.565626727</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.426920023473526e-06</v>
+        <v>1.552603162196721e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.691666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>71668.29005753261</v>
+        <v>94776.83725817211</v>
       </c>
     </row>
   </sheetData>
@@ -13881,28 +13881,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.54153797963308</v>
+        <v>97.25539172908637</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.7781943237703</v>
+        <v>133.0691175687478</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.3467315672924</v>
+        <v>120.3691877517015</v>
       </c>
       <c r="AD2" t="n">
-        <v>87541.53797963308</v>
+        <v>97255.39172908638</v>
       </c>
       <c r="AE2" t="n">
-        <v>119778.1943237703</v>
+        <v>133069.1175687478</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.847203705355953e-06</v>
+        <v>1.223202972246525e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.188888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>108346.7315672924</v>
+        <v>120369.1877517015</v>
       </c>
     </row>
     <row r="3">
@@ -13987,28 +13987,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.67023379841503</v>
+        <v>69.46933889388892</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.64344634788687</v>
+        <v>95.05101424551366</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.85151041576027</v>
+        <v>85.97947885088156</v>
       </c>
       <c r="AD3" t="n">
-        <v>59670.23379841504</v>
+        <v>69469.33889388891</v>
       </c>
       <c r="AE3" t="n">
-        <v>81643.44634788687</v>
+        <v>95051.01424551365</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.469112580570117e-06</v>
+        <v>1.512945156391439e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.577777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>73851.51041576028</v>
+        <v>85979.47885088157</v>
       </c>
     </row>
   </sheetData>
